--- a/biology/Médecine/John_Arderne/John_Arderne.xlsx
+++ b/biology/Médecine/John_Arderne/John_Arderne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Arderne ou John of Arderne, né en 1307 et mort en 1392, est considéré comme le père de la chirurgie en Angleterre[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Arderne ou John of Arderne, né en 1307 et mort en 1392, est considéré comme le père de la chirurgie en Angleterre. 
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Arderne descend probablement de la famille des Arderne, lords du Northamptonshire depuis le début du XIIe siècle[2].
-Il accompagne l'armée anglaise lors de la guerre de Cent Ans, il aurait participé à la bataille de Crécy, et il parcourt ensuite l'Europe en étant attaché au duc de Lancastre. C'est probablement à cette période qu'il fréquente l'École de médecine de Montpellier, à l'instar de son compatriote Jean de Gaddesden (1280-1361). De retour en Angleterre, il exerce la chirurgie à Newark de 1349 à 1370, puis à Londres[3],[4].
-Habile opérateur et médecin des nobles, ses honoraires étaient considérables[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Arderne descend probablement de la famille des Arderne, lords du Northamptonshire depuis le début du XIIe siècle.
+Il accompagne l'armée anglaise lors de la guerre de Cent Ans, il aurait participé à la bataille de Crécy, et il parcourt ensuite l'Europe en étant attaché au duc de Lancastre. C'est probablement à cette période qu'il fréquente l'École de médecine de Montpellier, à l'instar de son compatriote Jean de Gaddesden (1280-1361). De retour en Angleterre, il exerce la chirurgie à Newark de 1349 à 1370, puis à Londres,.
+Habile opérateur et médecin des nobles, ses honoraires étaient considérables,.
 </t>
         </is>
       </c>
@@ -544,17 +558,19 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme d'autres chirurgiens médiévaux avant lui (Guillaume de Salicet, Henri de Mondeville), il émaille ses textes de maximes sur le métier de chirurgie et les devoirs du chirurgien[6].
-Il rédige en latin et en moyen anglais[7], et ses œuvres ont été publiées en anglais moderne au début du XXe siècle par D'Arcy Power (en)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme d'autres chirurgiens médiévaux avant lui (Guillaume de Salicet, Henri de Mondeville), il émaille ses textes de maximes sur le métier de chirurgie et les devoirs du chirurgien.
+Il rédige en latin et en moyen anglais, et ses œuvres ont été publiées en anglais moderne au début du XXe siècle par D'Arcy Power (en) :
 Treatises of fistula in ano, haemorrhoids and clysters (1376), il existe une version anglaise de 1582, republiée en 1910.
-De arte phisicali et de cirurgia (1412) (posthume)[8], traduit en anglais en 1922.
+De arte phisicali et de cirurgia (1412) (posthume), traduit en anglais en 1922.
 Opera omnia, œuvres complètes traduites en anglais en 1922.
-Son ouvrage principal est le traité sur la fistule anale[7], où il donne une liste de noms de 19 patients guéris, 2 ont été identifiés comme chevaliers ou nobles, et 8 comme des membres du clergé[9].
-Depuis l'Antiquité, il existait deux types de traitements chirurgicaux d'une fistule anale : incision au scalpel ou introduction d'un fil dans le rectum en le faisant ressortir par l'orifice de la fistule pour relier les deux bouts par une ligature. Celle-ci permet une striction progressive sur plusieurs jours (procédures dont les principes sont restés valables au XXIe siècle)[9]. 
-John Arderne combine les deux méthodes et utilise divers instruments spéciaux de son invention, comme le tendiculum et l'acus rostrata[2],[10], mais il est peu probable que ces innovations techniques soient à l'origine des succès qu'il proclame[9].
-Il s'intéresse aussi aux hémorragies, aux tumeurs, aux affections oculaires et des organes génitaux[3],[4],[7].
+Son ouvrage principal est le traité sur la fistule anale, où il donne une liste de noms de 19 patients guéris, 2 ont été identifiés comme chevaliers ou nobles, et 8 comme des membres du clergé.
+Depuis l'Antiquité, il existait deux types de traitements chirurgicaux d'une fistule anale : incision au scalpel ou introduction d'un fil dans le rectum en le faisant ressortir par l'orifice de la fistule pour relier les deux bouts par une ligature. Celle-ci permet une striction progressive sur plusieurs jours (procédures dont les principes sont restés valables au XXIe siècle). 
+John Arderne combine les deux méthodes et utilise divers instruments spéciaux de son invention, comme le tendiculum et l'acus rostrata mais il est peu probable que ces innovations techniques soient à l'origine des succès qu'il proclame.
+Il s'intéresse aussi aux hémorragies, aux tumeurs, aux affections oculaires et des organes génitaux.
 </t>
         </is>
       </c>
